--- a/صيدليات دكتور مصطفي طلعت_2026-01-09_09-58.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-09_09-58.xlsx
@@ -65,10 +65,16 @@
     <t>0:2</t>
   </si>
   <si>
+    <t xml:space="preserve">EMPACOZA TRIO XR 25/5/1000  30TAB</t>
+  </si>
+  <si>
     <t>FEROGLOBIN 30 CAPS</t>
   </si>
   <si>
     <t>0:1</t>
+  </si>
+  <si>
+    <t>GLYBOFEN 5/500MG 30 F.C.TABS.</t>
   </si>
   <si>
     <t>LEZBERG TRIO 20/5/12.5 TAB</t>
@@ -818,17 +824,17 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c t="s" r="H9" s="8">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="9">
-        <v>90</v>
+        <v>132</v>
       </c>
       <c r="M9" s="9"/>
       <c t="s" r="N9" s="7">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1">
@@ -836,7 +842,7 @@
         <v>7</v>
       </c>
       <c t="s" r="B10" s="7">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -844,17 +850,17 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c t="s" r="H10" s="8">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="9">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="M10" s="9"/>
       <c t="s" r="N10" s="7">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" ht="24.75" customHeight="1">
@@ -870,17 +876,17 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c t="s" r="H11" s="8">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="9">
-        <v>45</v>
+        <v>14.25</v>
       </c>
       <c r="M11" s="9"/>
       <c t="s" r="N11" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -888,7 +894,7 @@
         <v>9</v>
       </c>
       <c t="s" r="B12" s="7">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -896,17 +902,17 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c t="s" r="H12" s="8">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="9">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M12" s="9"/>
       <c t="s" r="N12" s="7">
-        <v>25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" ht="25.5" customHeight="1">
@@ -914,7 +920,7 @@
         <v>10</v>
       </c>
       <c t="s" r="B13" s="7">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -922,51 +928,103 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c t="s" r="H13" s="8">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="9">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="M13" s="9"/>
       <c t="s" r="N13" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" ht="24.75" customHeight="1">
+      <c r="A14" s="6">
+        <v>11</v>
+      </c>
+      <c t="s" r="B14" s="7">
+        <v>25</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c t="s" r="H14" s="8">
+        <v>26</v>
+      </c>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="9">
+        <v>34</v>
+      </c>
+      <c r="M14" s="9"/>
+      <c t="s" r="N14" s="7">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" ht="25.5" customHeight="1">
+      <c r="A15" s="6">
+        <v>12</v>
+      </c>
+      <c t="s" r="B15" s="7">
         <v>28</v>
       </c>
-    </row>
-    <row r="14" ht="25.5" customHeight="1">
-      <c r="K14" s="10">
-        <v>408.82999999999998</v>
-      </c>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-    </row>
-    <row r="15" ht="16.5" customHeight="1">
-      <c t="s" r="A15" s="11">
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c t="s" r="H15" s="8">
         <v>29</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c t="s" r="F15" s="12">
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="9">
+        <v>6</v>
+      </c>
+      <c r="M15" s="9"/>
+      <c t="s" r="N15" s="7">
         <v>30</v>
       </c>
-      <c r="G15" s="12"/>
-      <c r="H15" s="13"/>
-      <c t="s" r="I15" s="14">
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="K16" s="10">
+        <v>555.08000000000004</v>
+      </c>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+    </row>
+    <row r="17" ht="16.5" customHeight="1">
+      <c t="s" r="A17" s="11">
         <v>31</v>
       </c>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c t="s" r="F17" s="12">
+        <v>32</v>
+      </c>
+      <c r="G17" s="12"/>
+      <c r="H17" s="13"/>
+      <c t="s" r="I17" s="14">
+        <v>33</v>
+      </c>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="41">
+  <mergeCells count="47">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -1004,10 +1062,16 @@
     <mergeCell ref="B13:G13"/>
     <mergeCell ref="H13:K13"/>
     <mergeCell ref="L13:M13"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="I15:N15"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="I17:N17"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
